--- a/abgabeanhang/Anhang/Parsetabelle.xlsx
+++ b/abgabeanhang/Anhang/Parsetabelle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fretan-my.sharepoint.com/personal/lukas_tanneberger_fretan_eu/Documents/Dokumente/_BeLL/recherche/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fretan-my.sharepoint.com/personal/lukas_tanneberger_fretan_eu/Documents/Dokumente/_BeLL/abgabeanhang/Anhang/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="8_{59A4C0DA-699E-4DDA-B27D-C5BF60463CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DDAD538-EC83-40CC-BE33-773116C88FE3}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="8_{59A4C0DA-699E-4DDA-B27D-C5BF60463CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{476A7002-9D99-4161-8EC4-1937DF5770A7}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="105" windowWidth="38640" windowHeight="21120" xr2:uid="{0D992A2A-AB01-40AA-8C33-848752AFD0A0}"/>
   </bookViews>
@@ -95,9 +95,6 @@
     <t>DefinitionLeading</t>
   </si>
   <si>
-    <t>DefinitionTrailling</t>
-  </si>
-  <si>
     <t>NT \ T</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>COMMAND_ABLEITUNG</t>
   </si>
   <si>
-    <t>TEMP_SUBSTITUTION</t>
-  </si>
-  <si>
     <t>UNKNOWN_IDENTIFIER</t>
   </si>
   <si>
@@ -171,6 +165,12 @@
   </si>
   <si>
     <t>[1], diese Regel nur verwenden, wenn leere Eingaben erlaubt sein sollen, was nicht der Fall ist.</t>
+  </si>
+  <si>
+    <t>TERM_SUBSTITUTION</t>
+  </si>
+  <si>
+    <t>DefinitionTrailing</t>
   </si>
 </sst>
 </file>
@@ -206,10 +206,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -226,6 +229,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -548,7 +555,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,61 +583,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>33</v>
       </c>
-      <c r="P1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="S1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="R1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -658,8 +665,8 @@
       <c r="J2">
         <v>8</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>44</v>
+      <c r="S2" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -789,7 +796,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M16">
         <v>30</v>
@@ -819,7 +826,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="O19">
         <v>34</v>
@@ -860,7 +867,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G23">
         <v>40</v>
@@ -868,7 +875,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I24">
         <v>41</v>
@@ -879,7 +886,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L25">
         <v>43</v>
@@ -887,7 +894,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N26">
         <v>45</v>
@@ -898,5 +905,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>